--- a/UZH-files/Bio206/plant_knowledge.xlsx
+++ b/UZH-files/Bio206/plant_knowledge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucio Vinicius\Desktop\Lucinho\teaching\BIO 206\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pascal\Documents\GitHub\kingquote\UZH-files\Bio206\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47931521-8ECE-41E5-83A5-66B897ED9DED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349B75AD-D897-405A-9250-03173CB600F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_knowledge" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="256">
-  <si>
-    <t>ID</t>
-  </si>
   <si>
     <t>Banga</t>
   </si>
@@ -789,11 +786,14 @@
   <si>
     <t>Y100</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1627,178 +1627,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
       <c r="S2">
         <v>1</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1856,7 +1858,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1907,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -1966,7 +1968,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2017,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -2076,7 +2078,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2127,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -2186,7 +2188,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2237,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -2296,7 +2298,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2347,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -2406,7 +2408,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2457,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2516,7 +2518,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2567,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -2626,7 +2628,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2677,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -2736,7 +2738,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2787,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -2846,7 +2848,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2897,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -2956,7 +2958,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3007,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -3066,7 +3068,7 @@
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3117,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -3176,7 +3178,7 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3227,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -3286,7 +3288,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3396,7 +3398,7 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3447,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S17">
         <v>1</v>
@@ -3506,7 +3508,7 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3557,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S18">
         <v>1</v>
@@ -3616,7 +3618,7 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3667,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -3726,7 +3728,7 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3777,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -3836,7 +3838,7 @@
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3887,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -3946,7 +3948,7 @@
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3997,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -4056,7 +4058,7 @@
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4107,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -4166,7 +4168,7 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4217,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -4276,7 +4278,7 @@
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4327,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -4386,7 +4388,7 @@
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4496,7 +4498,7 @@
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4547,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -4606,7 +4608,7 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4657,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="R28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -4716,7 +4718,7 @@
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4767,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -4826,7 +4828,7 @@
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4877,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="R30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S30">
         <v>1</v>
@@ -4936,7 +4938,7 @@
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4987,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S31">
         <v>1</v>
@@ -5046,7 +5048,7 @@
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5097,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="R32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -5156,7 +5158,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5266,7 +5268,7 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5317,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="R34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S34">
         <v>1</v>
@@ -5376,7 +5378,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5427,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="R35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S35">
         <v>1</v>
@@ -5486,7 +5488,7 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5537,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="R36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -5596,7 +5598,7 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5706,7 +5708,7 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5757,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S38">
         <v>1</v>
@@ -5816,7 +5818,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5867,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S39">
         <v>1</v>
@@ -5926,7 +5928,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -6036,7 +6038,7 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -6087,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -6146,7 +6148,7 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -6197,7 +6199,7 @@
         <v>1</v>
       </c>
       <c r="R42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -6256,7 +6258,7 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -6366,7 +6368,7 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6417,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="R44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S44">
         <v>1</v>
@@ -6476,7 +6478,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6527,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="R45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S45">
         <v>1</v>
@@ -6586,7 +6588,7 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6637,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="R46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S46">
         <v>1</v>
@@ -6696,7 +6698,7 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6747,7 +6749,7 @@
         <v>1</v>
       </c>
       <c r="R47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S47">
         <v>1</v>
@@ -6806,7 +6808,7 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6857,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="R48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S48">
         <v>1</v>
@@ -6916,7 +6918,7 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6967,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="R49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S49">
         <v>1</v>
@@ -7026,7 +7028,7 @@
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -7077,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="R50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S50">
         <v>1</v>
@@ -7136,7 +7138,7 @@
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -7187,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -7246,7 +7248,7 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -7297,7 +7299,7 @@
         <v>1</v>
       </c>
       <c r="R52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -7356,7 +7358,7 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -7466,7 +7468,7 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -7517,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="R54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S54">
         <v>1</v>
@@ -7576,7 +7578,7 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7627,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="R55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S55">
         <v>1</v>
@@ -7686,7 +7688,7 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7737,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="R56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S56">
         <v>1</v>
@@ -7796,7 +7798,7 @@
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7847,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="R57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S57">
         <v>1</v>
@@ -7906,7 +7908,7 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -8016,7 +8018,7 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8126,7 +8128,7 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -8236,7 +8238,7 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -8346,7 +8348,7 @@
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8397,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="R62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S62">
         <v>1</v>
@@ -8456,7 +8458,7 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8507,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="R63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S63">
         <v>1</v>
@@ -8566,7 +8568,7 @@
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8617,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="R64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S64">
         <v>1</v>
@@ -8676,7 +8678,7 @@
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8727,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="R65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S65">
         <v>1</v>
@@ -8786,7 +8788,7 @@
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8837,7 +8839,7 @@
         <v>1</v>
       </c>
       <c r="R66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S66">
         <v>1</v>
@@ -8896,7 +8898,7 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8947,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="R67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S67">
         <v>1</v>
@@ -9006,7 +9008,7 @@
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -9057,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="R68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S68">
         <v>1</v>
@@ -9116,7 +9118,7 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -9167,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="R69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S69">
         <v>1</v>
@@ -9226,7 +9228,7 @@
     </row>
     <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -9336,7 +9338,7 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -9387,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="R71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S71">
         <v>0</v>
@@ -9446,7 +9448,7 @@
     </row>
     <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9497,7 +9499,7 @@
         <v>1</v>
       </c>
       <c r="R72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S72">
         <v>1</v>
@@ -9556,7 +9558,7 @@
     </row>
     <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9607,7 +9609,7 @@
         <v>1</v>
       </c>
       <c r="R73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S73">
         <v>1</v>
@@ -9666,7 +9668,7 @@
     </row>
     <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -9717,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="R74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S74">
         <v>1</v>
@@ -9776,7 +9778,7 @@
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -9827,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="R75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S75">
         <v>1</v>
@@ -9886,7 +9888,7 @@
     </row>
     <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -9937,7 +9939,7 @@
         <v>1</v>
       </c>
       <c r="R76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S76">
         <v>1</v>
@@ -9996,7 +9998,7 @@
     </row>
     <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -10047,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="R77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S77">
         <v>1</v>
@@ -10106,7 +10108,7 @@
     </row>
     <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -10157,7 +10159,7 @@
         <v>1</v>
       </c>
       <c r="R78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S78">
         <v>1</v>
@@ -10216,7 +10218,7 @@
     </row>
     <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -10326,7 +10328,7 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -10377,7 +10379,7 @@
         <v>1</v>
       </c>
       <c r="R80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S80">
         <v>1</v>
@@ -10436,7 +10438,7 @@
     </row>
     <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10546,7 +10548,7 @@
     </row>
     <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -10597,7 +10599,7 @@
         <v>1</v>
       </c>
       <c r="R82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S82">
         <v>1</v>
@@ -10656,7 +10658,7 @@
     </row>
     <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10766,7 +10768,7 @@
     </row>
     <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -10817,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="R84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S84">
         <v>1</v>
@@ -10876,7 +10878,7 @@
     </row>
     <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -10927,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="R85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S85">
         <v>1</v>
@@ -10986,7 +10988,7 @@
     </row>
     <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -11096,7 +11098,7 @@
     </row>
     <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -11147,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="R87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S87">
         <v>1</v>
@@ -11206,7 +11208,7 @@
     </row>
     <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -11257,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="R88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S88">
         <v>1</v>
@@ -11316,7 +11318,7 @@
     </row>
     <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -11426,7 +11428,7 @@
     </row>
     <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11477,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="R90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S90">
         <v>1</v>
@@ -11536,7 +11538,7 @@
     </row>
     <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11587,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="R91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S91">
         <v>1</v>
@@ -11646,7 +11648,7 @@
     </row>
     <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -11697,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="R92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S92">
         <v>1</v>
@@ -11756,7 +11758,7 @@
     </row>
     <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -11807,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="R93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S93">
         <v>1</v>
@@ -11866,7 +11868,7 @@
     </row>
     <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -11917,7 +11919,7 @@
         <v>1</v>
       </c>
       <c r="R94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S94">
         <v>1</v>
@@ -11976,7 +11978,7 @@
     </row>
     <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -12027,7 +12029,7 @@
         <v>1</v>
       </c>
       <c r="R95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S95">
         <v>1</v>
@@ -12086,7 +12088,7 @@
     </row>
     <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -12137,7 +12139,7 @@
         <v>1</v>
       </c>
       <c r="R96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S96">
         <v>1</v>
@@ -12196,7 +12198,7 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -12247,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="R97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S97">
         <v>1</v>
@@ -12306,7 +12308,7 @@
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -12357,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="R98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S98">
         <v>1</v>
@@ -12416,7 +12418,7 @@
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -12467,7 +12469,7 @@
         <v>1</v>
       </c>
       <c r="R99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S99">
         <v>1</v>
@@ -12526,7 +12528,7 @@
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -12577,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="R100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -12636,7 +12638,7 @@
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -12687,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="R101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -12746,7 +12748,7 @@
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -12797,7 +12799,7 @@
         <v>1</v>
       </c>
       <c r="R102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S102">
         <v>1</v>
@@ -12856,7 +12858,7 @@
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -12907,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="R103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S103">
         <v>1</v>
@@ -12966,7 +12968,7 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -13017,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="R104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S104">
         <v>1</v>
@@ -13076,7 +13078,7 @@
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -13127,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="R105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S105">
         <v>1</v>
@@ -13186,7 +13188,7 @@
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -13237,7 +13239,7 @@
         <v>1</v>
       </c>
       <c r="R106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S106">
         <v>1</v>
@@ -13296,7 +13298,7 @@
     </row>
     <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -13347,7 +13349,7 @@
         <v>1</v>
       </c>
       <c r="R107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S107">
         <v>1</v>
@@ -13406,7 +13408,7 @@
     </row>
     <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -13457,7 +13459,7 @@
         <v>1</v>
       </c>
       <c r="R108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S108">
         <v>1</v>
@@ -13516,7 +13518,7 @@
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -13626,7 +13628,7 @@
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -13736,7 +13738,7 @@
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13846,7 +13848,7 @@
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -13956,7 +13958,7 @@
     </row>
     <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -14066,7 +14068,7 @@
     </row>
     <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -14147,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="AB114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC114">
         <v>1</v>
@@ -14176,7 +14178,7 @@
     </row>
     <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -14257,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="AB115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC115">
         <v>1</v>
@@ -14286,7 +14288,7 @@
     </row>
     <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -14396,7 +14398,7 @@
     </row>
     <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -14506,7 +14508,7 @@
     </row>
     <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -14616,7 +14618,7 @@
     </row>
     <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -14726,7 +14728,7 @@
     </row>
     <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -14836,7 +14838,7 @@
     </row>
     <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -14946,7 +14948,7 @@
     </row>
     <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -15056,7 +15058,7 @@
     </row>
     <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -15166,7 +15168,7 @@
     </row>
     <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -15276,7 +15278,7 @@
     </row>
     <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -15386,7 +15388,7 @@
     </row>
     <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -15496,7 +15498,7 @@
     </row>
     <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -15606,7 +15608,7 @@
     </row>
     <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -15716,7 +15718,7 @@
     </row>
     <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -15826,7 +15828,7 @@
     </row>
     <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -15936,7 +15938,7 @@
     </row>
     <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -16046,7 +16048,7 @@
     </row>
     <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -16156,7 +16158,7 @@
     </row>
     <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -16266,7 +16268,7 @@
     </row>
     <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -16376,7 +16378,7 @@
     </row>
     <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -16486,7 +16488,7 @@
     </row>
     <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -16596,7 +16598,7 @@
     </row>
     <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -16706,7 +16708,7 @@
     </row>
     <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -16816,7 +16818,7 @@
     </row>
     <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -16926,7 +16928,7 @@
     </row>
     <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -17036,7 +17038,7 @@
     </row>
     <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -17146,7 +17148,7 @@
     </row>
     <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -17256,7 +17258,7 @@
     </row>
     <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -17366,7 +17368,7 @@
     </row>
     <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -17476,7 +17478,7 @@
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -17586,7 +17588,7 @@
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -17696,7 +17698,7 @@
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -17806,7 +17808,7 @@
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -17916,7 +17918,7 @@
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -18026,7 +18028,7 @@
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -18136,7 +18138,7 @@
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -18246,7 +18248,7 @@
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -18356,7 +18358,7 @@
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -18466,7 +18468,7 @@
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -18576,7 +18578,7 @@
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -18686,7 +18688,7 @@
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -18796,7 +18798,7 @@
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -18906,7 +18908,7 @@
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -19016,7 +19018,7 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -19126,7 +19128,7 @@
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -19236,7 +19238,7 @@
     </row>
     <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -19346,7 +19348,7 @@
     </row>
     <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -19456,7 +19458,7 @@
     </row>
     <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -19566,7 +19568,7 @@
     </row>
     <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -19676,7 +19678,7 @@
     </row>
     <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -19786,7 +19788,7 @@
     </row>
     <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -19896,7 +19898,7 @@
     </row>
     <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -19911,7 +19913,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -20006,7 +20008,7 @@
     </row>
     <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -20021,7 +20023,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -20116,7 +20118,7 @@
     </row>
     <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -20131,7 +20133,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -20226,7 +20228,7 @@
     </row>
     <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -20241,7 +20243,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -20336,7 +20338,7 @@
     </row>
     <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -20351,7 +20353,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -20446,7 +20448,7 @@
     </row>
     <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -20461,7 +20463,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -20556,7 +20558,7 @@
     </row>
     <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -20571,7 +20573,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -20666,7 +20668,7 @@
     </row>
     <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -20681,7 +20683,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -20776,7 +20778,7 @@
     </row>
     <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -20791,7 +20793,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -20886,7 +20888,7 @@
     </row>
     <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -20901,7 +20903,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -20996,7 +20998,7 @@
     </row>
     <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -21011,7 +21013,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -21106,7 +21108,7 @@
     </row>
     <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -21121,7 +21123,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -21216,7 +21218,7 @@
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -21231,7 +21233,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -21326,7 +21328,7 @@
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -21341,7 +21343,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -21436,7 +21438,7 @@
     </row>
     <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -21451,7 +21453,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -21546,7 +21548,7 @@
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -21561,7 +21563,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -21656,7 +21658,7 @@
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -21671,7 +21673,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -21766,7 +21768,7 @@
     </row>
     <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -21781,7 +21783,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -21876,7 +21878,7 @@
     </row>
     <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -21891,7 +21893,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -21986,7 +21988,7 @@
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -22001,7 +22003,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -22096,7 +22098,7 @@
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -22111,7 +22113,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -22206,7 +22208,7 @@
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -22221,7 +22223,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -22316,7 +22318,7 @@
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -22331,7 +22333,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -22426,7 +22428,7 @@
     </row>
     <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -22441,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -22536,7 +22538,7 @@
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -22551,7 +22553,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -22646,7 +22648,7 @@
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -22661,7 +22663,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -22756,7 +22758,7 @@
     </row>
     <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -22771,7 +22773,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -22866,7 +22868,7 @@
     </row>
     <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -22881,7 +22883,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -22976,7 +22978,7 @@
     </row>
     <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -22991,7 +22993,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -23086,7 +23088,7 @@
     </row>
     <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -23101,7 +23103,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -23196,7 +23198,7 @@
     </row>
     <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -23211,7 +23213,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -23306,7 +23308,7 @@
     </row>
     <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -23416,7 +23418,7 @@
     </row>
     <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -23526,7 +23528,7 @@
     </row>
     <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -23636,7 +23638,7 @@
     </row>
     <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -23746,7 +23748,7 @@
     </row>
     <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -23856,7 +23858,7 @@
     </row>
     <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -23966,7 +23968,7 @@
     </row>
     <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -24076,7 +24078,7 @@
     </row>
     <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -24186,7 +24188,7 @@
     </row>
     <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -24296,7 +24298,7 @@
     </row>
     <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -24406,7 +24408,7 @@
     </row>
     <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -24516,7 +24518,7 @@
     </row>
     <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -24626,7 +24628,7 @@
     </row>
     <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -24736,7 +24738,7 @@
     </row>
     <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -24846,7 +24848,7 @@
     </row>
     <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -24956,7 +24958,7 @@
     </row>
     <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -24971,7 +24973,7 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -25066,7 +25068,7 @@
     </row>
     <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -25176,7 +25178,7 @@
     </row>
     <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -25286,7 +25288,7 @@
     </row>
     <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -25396,7 +25398,7 @@
     </row>
     <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -25506,7 +25508,7 @@
     </row>
     <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -25616,7 +25618,7 @@
     </row>
     <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -25631,7 +25633,7 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -25726,7 +25728,7 @@
     </row>
     <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -25741,7 +25743,7 @@
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G220">
         <v>0</v>
